--- a/tut06/output/2001EE69.xlsx
+++ b/tut06/output/2001EE69.xlsx
@@ -537,7 +537,7 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -546,7 +546,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -559,16 +559,16 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -581,7 +581,7 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -590,7 +590,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -691,7 +691,7 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -713,7 +713,7 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -801,7 +801,7 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
